--- a/WordNet.xlsx
+++ b/WordNet.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\morte\PycharmProjects\WordNet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martine OJ\Documents\GitHub\Wordnet_NLTK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{EB46C632-8C73-4114-A7CA-81EAB6206EFB}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="11040" xr2:uid="{2901019D-74A5-4BB9-AC99-619E79CF9A3B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="11040"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
     <t>English</t>
   </si>
@@ -49,12 +48,18 @@
   </si>
   <si>
     <t>missing</t>
+  </si>
+  <si>
+    <t>potato.n.02</t>
+  </si>
+  <si>
+    <t>hyper=vinplante?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -408,20 +413,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9E5C375-2BC8-4530-8D84-79E488DEB6C9}">
-  <dimension ref="A1:B6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.53125" customWidth="1"/>
-    <col min="2" max="2" width="25.46484375" customWidth="1"/>
+    <col min="1" max="1" width="24.5546875" customWidth="1"/>
+    <col min="2" max="2" width="25.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="25.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -429,7 +434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -437,7 +442,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -445,7 +450,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -453,7 +458,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -461,12 +466,20 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
